--- a/data/trans_dic/P69$dolorEspalda-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P69$dolorEspalda-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.6238216260672362</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.6242830109864964</v>
+        <v>0.6242830109864963</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.5879518379317078</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4495243577172559</v>
+        <v>0.4476399575462076</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5177075589472248</v>
+        <v>0.5102463262305252</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3852297085896161</v>
+        <v>0.3623667549524018</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3749946190029873</v>
+        <v>0.3782917268498186</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.445717219698875</v>
+        <v>0.4484058985377233</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4422526350353514</v>
+        <v>0.4509814036092857</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4767185792989866</v>
+        <v>0.4749898759136439</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5031858714778989</v>
+        <v>0.5210411751204126</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4931994713855768</v>
+        <v>0.4908680875116417</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5232719818101785</v>
+        <v>0.5226250024611917</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4789091103610797</v>
+        <v>0.4724082687796941</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4829116961717623</v>
+        <v>0.4874985696433515</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6986997551296038</v>
+        <v>0.6982363409736095</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7663570015503423</v>
+        <v>0.7761840677701349</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6813132113261072</v>
+        <v>0.683923776872855</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6584361052060981</v>
+        <v>0.6743676091592827</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.730818755629244</v>
+        <v>0.7344908789244666</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7585021813243633</v>
+        <v>0.7430951860536708</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7579456887967884</v>
+        <v>0.7584240635116978</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7232444750822909</v>
+        <v>0.7253265128238466</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6872111409604933</v>
+        <v>0.6801159607079925</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7167840188049354</v>
+        <v>0.7189730539502222</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.681997121070855</v>
+        <v>0.6942366902941388</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6538052592207368</v>
+        <v>0.673924780372369</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.7672249122625143</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5589432886934927</v>
+        <v>0.5589432886934929</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.8528050437474644</v>
@@ -821,7 +821,7 @@
         <v>0.9039618055838035</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.5627052650948221</v>
+        <v>0.5627052650948222</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.6775045317702253</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.358807595469523</v>
+        <v>0.3383847318062109</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5727292983513904</v>
+        <v>0.5676415463423511</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5843624134808427</v>
+        <v>0.5727850794416198</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4000620622452938</v>
+        <v>0.3970364573624577</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.716601773906721</v>
+        <v>0.7007187597450321</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5247548812358617</v>
+        <v>0.4841622157471833</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7637271167025748</v>
+        <v>0.7432895176666305</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4263235947348852</v>
+        <v>0.400938552996345</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5795203472071949</v>
+        <v>0.5682254389677113</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6163051751872147</v>
+        <v>0.6227918173621703</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7086194441711738</v>
+        <v>0.7262076187201119</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4658744288754884</v>
+        <v>0.4535031180810117</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6766087849207025</v>
+        <v>0.669892689531316</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.883900954138121</v>
+        <v>0.8707738112836323</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9007561900800111</v>
+        <v>0.8999677872132913</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6927844305192872</v>
+        <v>0.6931348734368568</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9479550591855902</v>
+        <v>0.9470880659217976</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8994952310176479</v>
+        <v>0.9188082565375981</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9691117595436239</v>
+        <v>0.969432631002785</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.700417178666873</v>
+        <v>0.6842656674668284</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7822665573391443</v>
+        <v>0.7813960891361563</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.8621131394836388</v>
+        <v>0.8515648853531788</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9183553855548037</v>
+        <v>0.9206373350934561</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6625559930563168</v>
+        <v>0.6601914875407426</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.6832789658562163</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7141922704889914</v>
+        <v>0.7141922704889915</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.8015761503963958</v>
@@ -957,7 +957,7 @@
         <v>0.8970887189884393</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.813887506893158</v>
+        <v>0.8138875068931585</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.8002073849338176</v>
@@ -969,7 +969,7 @@
         <v>0.7103681279975574</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.7390816234015054</v>
+        <v>0.7390816234015053</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7106834898508929</v>
+        <v>0.7151670059702556</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5991712116097617</v>
+        <v>0.5950796203985981</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5611647103738371</v>
+        <v>0.557618707432453</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5828486873203127</v>
+        <v>0.5720223868554243</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5409019445109129</v>
+        <v>0.5360281144086362</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7228214829851375</v>
+        <v>0.7683581291113668</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5580666058428546</v>
+        <v>0.5099126332505366</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6352500831332215</v>
+        <v>0.6189247411236583</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7154099278860852</v>
+        <v>0.7213424985162347</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6813468107926242</v>
+        <v>0.675230997154781</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.586656152206172</v>
+        <v>0.5942391696334943</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.6184325618278526</v>
+        <v>0.6243004055248199</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8665934022021972</v>
+        <v>0.8706533681028209</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7967647847609383</v>
+        <v>0.8057535457636668</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8003021972277219</v>
+        <v>0.7975975474867899</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8278003351560534</v>
+        <v>0.8292464903279667</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9402373625505142</v>
+        <v>0.9401423247769571</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9705425850185467</v>
+        <v>0.9706704157657178</v>
       </c>
       <c r="I12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9320301160700878</v>
+        <v>0.9286994990090767</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8657974390872365</v>
+        <v>0.8707805927865042</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8420965320122078</v>
+        <v>0.8389363636444471</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.801696248187456</v>
+        <v>0.8104677149146862</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.8249419825603679</v>
+        <v>0.8256093184588666</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.838378640196815</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.8204678352185139</v>
+        <v>0.8204678352185137</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7418551571748871</v>
+        <v>0.7441139951694127</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.677960752090047</v>
+        <v>0.6713505409942871</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7085455174538345</v>
+        <v>0.7154043500003263</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7695904523475281</v>
+        <v>0.7595980688771409</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5779385397916568</v>
+        <v>0.5886843132360974</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7009416901181316</v>
+        <v>0.7097378917960212</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8196287239516286</v>
+        <v>0.8259820349630472</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.724011362925959</v>
+        <v>0.7322505023569013</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7213999003599482</v>
+        <v>0.7307324157137293</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7167420551272778</v>
+        <v>0.7221908367867351</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7845229361982835</v>
+        <v>0.7859780601475626</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.7678152078461421</v>
+        <v>0.7711326881245536</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8520281618333675</v>
+        <v>0.8577766206044972</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8382986617339249</v>
+        <v>0.8424906672536761</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8614082897843276</v>
+        <v>0.8587075324728575</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8873682691663451</v>
+        <v>0.8903723248025739</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8379355898337364</v>
+        <v>0.8364878212408938</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8988503002419986</v>
+        <v>0.8998633761000746</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9647446724831686</v>
+        <v>0.9657360838028158</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8656720965204149</v>
+        <v>0.8640399401120271</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.827114100157236</v>
+        <v>0.8319194366247736</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.8419032056156134</v>
+        <v>0.8407277293808088</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8851282100221814</v>
+        <v>0.8833798763336463</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.8628281164178691</v>
+        <v>0.8679764340752273</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.736097236442139</v>
+        <v>0.7378430188863196</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7174292170469122</v>
+        <v>0.7312909508804658</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7473593107941908</v>
+        <v>0.7319536505324968</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7967255867506252</v>
+        <v>0.7903068373701559</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8070627208964528</v>
+        <v>0.8120153868430124</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6638333727607477</v>
+        <v>0.6730774063028478</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8229367138054426</v>
+        <v>0.8069571408557408</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8874796458973783</v>
+        <v>0.8770037908855243</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8110358543792684</v>
+        <v>0.813838803724946</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.7331416235853795</v>
+        <v>0.7313026505002158</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.8082518903030347</v>
+        <v>0.7954046886415137</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.8736874412540625</v>
+        <v>0.8750669602757362</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9244832065911598</v>
+        <v>0.9283056158004389</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9447541426739714</v>
+        <v>0.9481291412552283</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9319961022184436</v>
+        <v>0.9268563619406818</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9666754130591633</v>
+        <v>0.9698409831009349</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9597050044695569</v>
+        <v>0.9581147668564568</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9251836001820083</v>
+        <v>0.923814769856886</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9775562207168488</v>
+        <v>0.9774939166635775</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9680275279438206</v>
+        <v>0.9669901375975508</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9328561483908085</v>
+        <v>0.9269059206637207</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.9073398152069977</v>
+        <v>0.9120507131852591</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9293197947296868</v>
+        <v>0.9291646898712732</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9565677856653205</v>
+        <v>0.95720725823129</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.8495516544384887</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.7781024396307129</v>
+        <v>0.7781024396307128</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.7595840928127164</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7112782480957366</v>
+        <v>0.7072429394357618</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6967124577993591</v>
+        <v>0.6897429934117537</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7007093309738359</v>
+        <v>0.6975274579150679</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6991260945850604</v>
+        <v>0.7005325011712995</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7254192725872813</v>
+        <v>0.7177327577425068</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.7172322483835627</v>
+        <v>0.7196885891690772</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.7960905089015456</v>
+        <v>0.7980931011079589</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.7364298554376473</v>
+        <v>0.7389514814166374</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.72400084746952</v>
+        <v>0.7261050829676298</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.7175929406656062</v>
+        <v>0.7149433259374028</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.748600155604299</v>
+        <v>0.748081232797209</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.7289888656389868</v>
+        <v>0.7282525856793581</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7892653238315847</v>
+        <v>0.7868738769702831</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7919651429717014</v>
+        <v>0.7872585153202986</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7985646505335078</v>
+        <v>0.7962445682660476</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.7952161142674987</v>
+        <v>0.7968938379677877</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8283479674172423</v>
+        <v>0.8338607545681462</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8312998425582269</v>
+        <v>0.8384756549216308</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8966126212754721</v>
+        <v>0.8950642832091905</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.8190813191697389</v>
+        <v>0.8196349650839638</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.7912102802791806</v>
+        <v>0.7899833629964365</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.7950171336333004</v>
+        <v>0.7947547886269387</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.8186465252177267</v>
+        <v>0.8191199661963452</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.7920900638281118</v>
+        <v>0.7920125174286798</v>
       </c>
     </row>
     <row r="22">
@@ -1737,40 +1737,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>29256</v>
+        <v>29134</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>28711</v>
+        <v>28297</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>18072</v>
+        <v>16999</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>19186</v>
+        <v>19355</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>20793</v>
+        <v>20918</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>18443</v>
+        <v>18807</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>21898</v>
+        <v>21818</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>30766</v>
+        <v>31857</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>55107</v>
+        <v>54846</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>50841</v>
+        <v>50778</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>44464</v>
+        <v>43861</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>54234</v>
+        <v>54749</v>
       </c>
     </row>
     <row r="7">
@@ -1781,40 +1781,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>42501</v>
+        <v>43046</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>31961</v>
+        <v>32084</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>33688</v>
+        <v>34503</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>34093</v>
+        <v>34264</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>31631</v>
+        <v>30989</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>34815</v>
+        <v>34837</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>44221</v>
+        <v>44348</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>76784</v>
+        <v>75991</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>69643</v>
+        <v>69855</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>63320</v>
+        <v>64456</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>73426</v>
+        <v>75686</v>
       </c>
     </row>
     <row r="8">
@@ -1917,40 +1917,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>15197</v>
+        <v>14332</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>20814</v>
+        <v>20629</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>17669</v>
+        <v>17319</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>20827</v>
+        <v>20669</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>29822</v>
+        <v>29161</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>13966</v>
+        <v>12885</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>22449</v>
+        <v>21848</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>19378</v>
+        <v>18224</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>48662</v>
+        <v>47714</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>38800</v>
+        <v>39208</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>42256</v>
+        <v>43304</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>45429</v>
+        <v>44222</v>
       </c>
     </row>
     <row r="11">
@@ -1961,40 +1961,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>28658</v>
+        <v>28373</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>32123</v>
+        <v>31646</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>27235</v>
+        <v>27211</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>36066</v>
+        <v>36084</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>39450</v>
+        <v>39414</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>23939</v>
+        <v>24453</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>28486</v>
+        <v>28496</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>31837</v>
+        <v>31103</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>65687</v>
+        <v>65614</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>54275</v>
+        <v>53611</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>54762</v>
+        <v>54899</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>64608</v>
+        <v>64377</v>
       </c>
     </row>
     <row r="12">
@@ -2097,40 +2097,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>71090</v>
+        <v>71538</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>47577</v>
+        <v>47252</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>37012</v>
+        <v>36778</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>35836</v>
+        <v>35171</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>8810</v>
+        <v>8730</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>24375</v>
+        <v>25911</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5340</v>
+        <v>4879</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>12995</v>
+        <v>12661</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>83214</v>
+        <v>83904</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>77078</v>
+        <v>76386</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>44307</v>
+        <v>44880</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>50676</v>
+        <v>51156</v>
       </c>
     </row>
     <row r="15">
@@ -2141,40 +2141,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>86685</v>
+        <v>87091</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>63267</v>
+        <v>63981</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>52785</v>
+        <v>52606</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>50897</v>
+        <v>50986</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>15314</v>
+        <v>15312</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>32729</v>
+        <v>32733</v>
       </c>
       <c r="I15" s="6" t="n">
         <v>9569</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>19067</v>
+        <v>18998</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>100706</v>
+        <v>101286</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>95263</v>
+        <v>94906</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>60548</v>
+        <v>61211</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>67597</v>
+        <v>67652</v>
       </c>
     </row>
     <row r="16">
@@ -2277,40 +2277,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>148376</v>
+        <v>148828</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>78877</v>
+        <v>78108</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>96978</v>
+        <v>97917</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>116736</v>
+        <v>115220</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>28866</v>
+        <v>29402</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>47632</v>
+        <v>48230</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>68912</v>
+        <v>69446</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>81955</v>
+        <v>82888</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>180317</v>
+        <v>182649</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>132095</v>
+        <v>133099</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>173337</v>
+        <v>173659</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>203381</v>
+        <v>204260</v>
       </c>
     </row>
     <row r="19">
@@ -2321,40 +2321,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>170412</v>
+        <v>171561</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>97531</v>
+        <v>98019</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>117900</v>
+        <v>117530</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>134601</v>
+        <v>135057</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>41852</v>
+        <v>41779</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>61081</v>
+        <v>61150</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>81113</v>
+        <v>81196</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>97991</v>
+        <v>97806</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>206740</v>
+        <v>207942</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>155162</v>
+        <v>154945</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>195566</v>
+        <v>195179</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>228548</v>
+        <v>229912</v>
       </c>
     </row>
     <row r="20">
@@ -2457,40 +2457,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>47117</v>
+        <v>47229</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>28700</v>
+        <v>29255</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>50932</v>
+        <v>49882</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>51746</v>
+        <v>51329</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>52962</v>
+        <v>53287</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>28988</v>
+        <v>29392</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>38945</v>
+        <v>38188</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>88848</v>
+        <v>87799</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>105136</v>
+        <v>105500</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>61343</v>
+        <v>61190</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>93331</v>
+        <v>91848</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>144211</v>
+        <v>144439</v>
       </c>
     </row>
     <row r="23">
@@ -2501,40 +2501,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>59175</v>
+        <v>59420</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>37794</v>
+        <v>37929</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>63515</v>
+        <v>63164</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>62784</v>
+        <v>62989</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>62979</v>
+        <v>62874</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>40401</v>
+        <v>40341</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>46262</v>
+        <v>46259</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>96912</v>
+        <v>96808</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>120928</v>
+        <v>120157</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>75919</v>
+        <v>76313</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>107311</v>
+        <v>107293</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>157891</v>
+        <v>157997</v>
       </c>
     </row>
     <row r="24">
@@ -2637,40 +2637,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>335356</v>
+        <v>333454</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>228211</v>
+        <v>225928</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>243932</v>
+        <v>242825</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>266606</v>
+        <v>267142</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>159680</v>
+        <v>157988</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>153245</v>
+        <v>153769</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>172193</v>
+        <v>172626</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>250653</v>
+        <v>251512</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>500723</v>
+        <v>502178</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>388371</v>
+        <v>386937</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>422524</v>
+        <v>422231</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>526114</v>
+        <v>525583</v>
       </c>
     </row>
     <row r="27">
@@ -2681,40 +2681,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>372126</v>
+        <v>370998</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>259411</v>
+        <v>257870</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>277998</v>
+        <v>277190</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>303249</v>
+        <v>303889</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>182337</v>
+        <v>183550</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>177616</v>
+        <v>179150</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>193936</v>
+        <v>193601</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>278785</v>
+        <v>278973</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>547205</v>
+        <v>546356</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>430274</v>
+        <v>430132</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>462060</v>
+        <v>462327</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>571655</v>
+        <v>571599</v>
       </c>
     </row>
     <row r="28">
